--- a/Species.xlsx
+++ b/Species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divyansh Arya\JupyterNotebooks\BigDataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3803D3A-BB38-4BAD-8F25-BCF66267DAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EEDD6E-5B73-48D2-9217-7437F8A66E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{0ACDEAF7-9BE4-44DA-9601-7A6BB56BF26C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0ACDEAF7-9BE4-44DA-9601-7A6BB56BF26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Count</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Threshold</t>
+  </si>
+  <si>
+    <t>White Tiger</t>
+  </si>
+  <si>
+    <t>Whooping Crane</t>
+  </si>
+  <si>
+    <t>Sea Otter</t>
+  </si>
+  <si>
+    <t>Snow Leopard</t>
+  </si>
+  <si>
+    <t>Sea Turtle</t>
   </si>
 </sst>
 </file>
@@ -431,25 +446,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A770E4-1783-468E-AC3C-CF89FB5DDE40}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -477,8 +493,10 @@
       <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -536,7 +554,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -562,10 +580,10 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -576,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -585,22 +603,159 @@
         <v>12</v>
       </c>
       <c r="G5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <v>17.5</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>346</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>354</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>346</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
